--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Dumping_volume_dpp_drawing" sheetId="2" r:id="rId2"/>
     <sheet name="dumping_volume_provided" sheetId="3" r:id="rId3"/>
+    <sheet name="Rehab_Estimate" sheetId="4" r:id="rId4"/>
+    <sheet name="New_Estimate" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +105,258 @@
   </si>
   <si>
     <t>Fultola</t>
+  </si>
+  <si>
+    <t>Item_code</t>
+  </si>
+  <si>
+    <t>Short_descrip</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>qunatity</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>rate_revised</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>04-180</t>
+  </si>
+  <si>
+    <t>Site_prep</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>40-230-25</t>
+  </si>
+  <si>
+    <t>45X45X45 CC Block Manufature</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>40-230-45</t>
+  </si>
+  <si>
+    <t>35X35X35 CC Block Manufature</t>
+  </si>
+  <si>
+    <t>40-230-40</t>
+  </si>
+  <si>
+    <t>40-270-10</t>
+  </si>
+  <si>
+    <t>CC Block Placing Within 200m</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
+    <t>40-0270-20</t>
+  </si>
+  <si>
+    <t>CC Block Placing Within 200m to 500m</t>
+  </si>
+  <si>
+    <t>40-290-10</t>
+  </si>
+  <si>
+    <t>40-290-20</t>
+  </si>
+  <si>
+    <t>Dumping CC Block/Hard Rock within 200m</t>
+  </si>
+  <si>
+    <t>Dumping CC Block/Hard Rock within 200m-500m</t>
+  </si>
+  <si>
+    <t>Supplying Empty Geobag 200kg 0.133m</t>
+  </si>
+  <si>
+    <t>40-320-15</t>
+  </si>
+  <si>
+    <t>40-330-15</t>
+  </si>
+  <si>
+    <t>40-550-30</t>
+  </si>
+  <si>
+    <t>Sand Filter</t>
+  </si>
+  <si>
+    <t>40-520-20</t>
+  </si>
+  <si>
+    <t>Khoa Filter 40mm down graded</t>
+  </si>
+  <si>
+    <t>Khoa Filter 20mm down graded</t>
+  </si>
+  <si>
+    <t>40-5409-10</t>
+  </si>
+  <si>
+    <t>Geotex Filter</t>
+  </si>
+  <si>
+    <t>Cutting of Erroded Bank</t>
+  </si>
+  <si>
+    <t>40-920</t>
+  </si>
+  <si>
+    <t>site office</t>
+  </si>
+  <si>
+    <t>4-700-10</t>
+  </si>
+  <si>
+    <t>04-710</t>
+  </si>
+  <si>
+    <t>Temporary Land lease</t>
+  </si>
+  <si>
+    <t>River Morphological Survey</t>
+  </si>
+  <si>
+    <t>10-140-40</t>
+  </si>
+  <si>
+    <t>40-350-15</t>
+  </si>
+  <si>
+    <t>Filling and Placing of Geotextile Bags</t>
+  </si>
+  <si>
+    <t>28-120-20</t>
+  </si>
+  <si>
+    <t>CC_work</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CC_block_dumping</t>
+  </si>
+  <si>
+    <t>Geo_Bag_dumping</t>
+  </si>
+  <si>
+    <t>Pitching</t>
+  </si>
+  <si>
+    <t>Auxulary</t>
+  </si>
+  <si>
+    <t>40X40X20 CC Block Manufature</t>
+  </si>
+  <si>
+    <t>Geobag Dumping 200kg 0.133cum</t>
+  </si>
+  <si>
+    <t>16-100</t>
+  </si>
+  <si>
+    <t>Bamboo_Profile</t>
+  </si>
+  <si>
+    <t>04-120</t>
+  </si>
+  <si>
+    <t>BM_Piller</t>
+  </si>
+  <si>
+    <t>16-130</t>
+  </si>
+  <si>
+    <t>Resectioning Embankment</t>
+  </si>
+  <si>
+    <t>Cum</t>
+  </si>
+  <si>
+    <t>16-720-10</t>
+  </si>
+  <si>
+    <t>Ditch Filling Dredged Earth</t>
+  </si>
+  <si>
+    <t>XX-XX-XX</t>
+  </si>
+  <si>
+    <t>Pre_Work Postwork Video Graph</t>
+  </si>
+  <si>
+    <t>28-200-10</t>
+  </si>
+  <si>
+    <t>RCC 22Mpa</t>
+  </si>
+  <si>
+    <t>76-110-10</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Reinforecement 8 to 30mm dia</t>
+  </si>
+  <si>
+    <t>36-300-10</t>
+  </si>
+  <si>
+    <t>Shuttering for Footing  etc</t>
+  </si>
+  <si>
+    <t>Excavation For Foundation Trenches</t>
+  </si>
+  <si>
+    <t>16-500</t>
+  </si>
+  <si>
+    <t>Mangrove Plantation</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Geo_Bag_volume</t>
+  </si>
+  <si>
+    <t>CC_block Volume</t>
+  </si>
+  <si>
+    <t>Rehab</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -117,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +391,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -197,11 +470,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,12 +519,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,6 +1124,22 @@
         <v>154920</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="3">
+        <v>51540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <v>120560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <f>SUM(G9:G10)</f>
+        <v>172100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,17 +1147,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="F14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="12"/>
-    <col min="5" max="6" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="12"/>
     <col min="7" max="7" width="14.77734375" style="12" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="12.109375" customWidth="1"/>
@@ -892,7 +1231,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11">
@@ -922,11 +1261,11 @@
         <f>H2/E2</f>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="34">
         <f>F2*D2</f>
         <v>2679</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="34">
         <f>G2*D2</f>
         <v>2820</v>
       </c>
@@ -938,26 +1277,26 @@
         <v>2820</v>
       </c>
       <c r="N2" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O2" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P2" s="2">
         <f>N2-L2</f>
-        <v>219324</v>
+        <v>239762</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q6" si="0">O2-M2</f>
-        <v>168980</v>
-      </c>
-      <c r="R2" s="14">
+        <v>188900</v>
+      </c>
+      <c r="R2" s="32">
         <f>P2/N2</f>
-        <v>0.98793259550546619</v>
-      </c>
-      <c r="S2" s="14">
+        <v>0.98894988883893398</v>
+      </c>
+      <c r="S2" s="32">
         <f>Q2/O2</f>
-        <v>0.98358556461001168</v>
+        <v>0.98529104944711032</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1008,26 +1347,26 @@
         <v>13020</v>
       </c>
       <c r="N3" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O3" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" si="2">N3-L3</f>
-        <v>209634</v>
+        <v>230072</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="0"/>
-        <v>158780</v>
-      </c>
-      <c r="R3" s="14">
+        <v>178700</v>
+      </c>
+      <c r="R3" s="32">
         <f t="shared" ref="R3:R22" si="3">P3/N3</f>
-        <v>0.94428453669545009</v>
-      </c>
-      <c r="S3" s="14">
+        <v>0.94898140166061018</v>
+      </c>
+      <c r="S3" s="32">
         <f t="shared" ref="S3:S22" si="4">Q3/O3</f>
-        <v>0.92421420256111753</v>
+        <v>0.9320884623409138</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1078,30 +1417,30 @@
         <v>15722.5</v>
       </c>
       <c r="N4" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O4" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="2"/>
-        <v>207046.5</v>
+        <v>227484.5</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>156077.5</v>
-      </c>
-      <c r="R4" s="14">
+        <v>175997.5</v>
+      </c>
+      <c r="R4" s="32">
         <f t="shared" si="3"/>
-        <v>0.93262928879339468</v>
-      </c>
-      <c r="S4" s="14">
+        <v>0.93830870191098037</v>
+      </c>
+      <c r="S4" s="32">
         <f t="shared" si="4"/>
-        <v>0.90848370197904538</v>
+        <v>0.91799238472772793</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
@@ -1131,11 +1470,11 @@
         <f t="shared" si="6"/>
         <v>1.0222222222222221</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="34">
         <f>F5*D5</f>
         <v>6075</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="34">
         <f>G5*D5</f>
         <v>6345</v>
       </c>
@@ -1148,26 +1487,26 @@
         <v>22067.5</v>
       </c>
       <c r="N5" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O5" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>200971.5</v>
+        <v>221409.5</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>149732.5</v>
-      </c>
-      <c r="R5" s="14">
+        <v>169652.5</v>
+      </c>
+      <c r="R5" s="32">
         <f t="shared" si="3"/>
-        <v>0.90526479371900381</v>
-      </c>
-      <c r="S5" s="14">
+        <v>0.91325105902054515</v>
+      </c>
+      <c r="S5" s="32">
         <f t="shared" si="4"/>
-        <v>0.87155122235157156</v>
+        <v>0.88489724598372632</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1218,30 +1557,30 @@
         <v>24770</v>
       </c>
       <c r="N6" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O6" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>198384</v>
+        <v>218822</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>147030</v>
-      </c>
-      <c r="R6" s="14">
+        <v>166950</v>
+      </c>
+      <c r="R6" s="32">
         <f t="shared" si="3"/>
-        <v>0.8936095458169484</v>
-      </c>
-      <c r="S6" s="14">
+        <v>0.90257835927091534</v>
+      </c>
+      <c r="S6" s="32">
         <f t="shared" si="4"/>
-        <v>0.85582072176949942</v>
+        <v>0.87080116837054033</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="11">
@@ -1267,15 +1606,15 @@
         <f t="shared" ref="H7:H20" si="11">SUM(F7:G7)</f>
         <v>39</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="22">
         <f t="shared" ref="I7:I20" si="12">H7/E7</f>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="34">
         <f t="shared" ref="J7:J20" si="13">F7*D7</f>
         <v>7790</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="34">
         <f t="shared" ref="K7:K20" si="14">G7*D7</f>
         <v>8200</v>
       </c>
@@ -1288,26 +1627,26 @@
         <v>32970</v>
       </c>
       <c r="N7" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O7" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ref="P7:P20" si="15">N7-L7</f>
-        <v>190594</v>
+        <v>211032</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ref="Q7:Q20" si="16">O7-M7</f>
-        <v>138830</v>
-      </c>
-      <c r="R7" s="14">
+        <v>158750</v>
+      </c>
+      <c r="R7" s="32">
         <f t="shared" si="3"/>
-        <v>0.85851992991085702</v>
-      </c>
-      <c r="S7" s="14">
+        <v>0.8704468303628512</v>
+      </c>
+      <c r="S7" s="32">
         <f t="shared" si="4"/>
-        <v>0.80809080325960414</v>
+        <v>0.82803046108908829</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1358,30 +1697,30 @@
         <v>37170</v>
       </c>
       <c r="N8" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O8" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="15"/>
-        <v>186604</v>
+        <v>207042</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="16"/>
-        <v>134630</v>
-      </c>
-      <c r="R8" s="14">
+        <v>154550</v>
+      </c>
+      <c r="R8" s="32">
         <f t="shared" si="3"/>
-        <v>0.84054719981261516</v>
-      </c>
-      <c r="S8" s="14">
+        <v>0.85398921799530603</v>
+      </c>
+      <c r="S8" s="32">
         <f t="shared" si="4"/>
-        <v>0.78364377182770661</v>
+        <v>0.80612351345712496</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="11">
@@ -1398,56 +1737,56 @@
         <v>38</v>
       </c>
       <c r="F9" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G9" s="11">
         <v>20</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="12"/>
-        <v>0.76315789473684215</v>
-      </c>
-      <c r="J9" s="2">
+        <v>1.0263157894736843</v>
+      </c>
+      <c r="J9" s="34">
         <f t="shared" si="13"/>
-        <v>1269</v>
-      </c>
-      <c r="K9" s="2">
+        <v>2679</v>
+      </c>
+      <c r="K9" s="34">
         <f t="shared" si="14"/>
         <v>2820</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="9"/>
-        <v>36668</v>
+        <v>38078</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="10"/>
         <v>39990</v>
       </c>
       <c r="N9" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O9" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="15"/>
-        <v>185335</v>
+        <v>204363</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="16"/>
-        <v>131810</v>
-      </c>
-      <c r="R9" s="14">
+        <v>151730</v>
+      </c>
+      <c r="R9" s="32">
         <f t="shared" si="3"/>
-        <v>0.83483106084152015</v>
-      </c>
-      <c r="S9" s="14">
+        <v>0.84293910683424011</v>
+      </c>
+      <c r="S9" s="32">
         <f t="shared" si="4"/>
-        <v>0.76722933643771829</v>
+        <v>0.7914145629042354</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1468,10 +1807,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="11"/>
@@ -1483,41 +1822,41 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="13"/>
-        <v>11457</v>
+        <v>12663</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="14"/>
-        <v>12060</v>
+        <v>10854</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="9"/>
-        <v>48125</v>
+        <v>50741</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="10"/>
-        <v>52050</v>
+        <v>50844</v>
       </c>
       <c r="N10" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O10" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="15"/>
-        <v>173878</v>
+        <v>191700</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="16"/>
-        <v>119750</v>
-      </c>
-      <c r="R10" s="14">
+        <v>140876</v>
+      </c>
+      <c r="R10" s="32">
         <f t="shared" si="3"/>
-        <v>0.78322365013085404</v>
-      </c>
-      <c r="S10" s="14">
+        <v>0.79070784232039959</v>
+      </c>
+      <c r="S10" s="32">
         <f t="shared" si="4"/>
-        <v>0.69703143189755534</v>
+        <v>0.73480075109534737</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1538,10 +1877,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="11">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="G11" s="11">
-        <v>23.5</v>
+        <v>20.5</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="11"/>
@@ -1553,121 +1892,120 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="13"/>
-        <v>6750</v>
+        <v>7650</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="14"/>
-        <v>7050</v>
+        <v>6150</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="9"/>
-        <v>54875</v>
+        <v>58391</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="10"/>
-        <v>59100</v>
+        <v>56994</v>
       </c>
       <c r="N11" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O11" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="15"/>
-        <v>167128</v>
+        <v>184050</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="16"/>
-        <v>112700</v>
-      </c>
-      <c r="R11" s="14">
+        <v>134726</v>
+      </c>
+      <c r="R11" s="32">
         <f t="shared" si="3"/>
-        <v>0.75281865560375305</v>
-      </c>
-      <c r="S11" s="14">
+        <v>0.75915377349540714</v>
+      </c>
+      <c r="S11" s="32">
         <f t="shared" si="4"/>
-        <v>0.65599534342258436</v>
+        <v>0.70272272063425834</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>2700</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>3262</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f t="shared" si="1"/>
         <v>562</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>38</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>19</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>20</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f t="shared" si="12"/>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <f t="shared" si="13"/>
         <v>10678</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <f t="shared" si="14"/>
         <v>11240</v>
       </c>
       <c r="L12" s="9">
         <f>L11+J12</f>
-        <v>65553</v>
+        <v>69069</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="10"/>
-        <v>70340</v>
-      </c>
-      <c r="N12" s="17">
-        <v>222003</v>
-      </c>
-      <c r="O12" s="17">
-        <v>171800</v>
-      </c>
-      <c r="P12" s="17">
-        <f t="shared" si="15"/>
-        <v>156450</v>
-      </c>
-      <c r="Q12" s="17">
+        <v>68234</v>
+      </c>
+      <c r="N12" s="2">
+        <v>242441</v>
+      </c>
+      <c r="O12" s="2">
+        <v>191720</v>
+      </c>
+      <c r="P12" s="2">
+        <v>191720</v>
+      </c>
+      <c r="Q12" s="15">
         <f t="shared" si="16"/>
-        <v>101460</v>
-      </c>
-      <c r="R12" s="15">
+        <v>123486</v>
+      </c>
+      <c r="R12" s="33">
         <f>P12/N12</f>
-        <v>0.70472020648369615</v>
-      </c>
-      <c r="S12" s="15">
+        <v>0.79079033661798126</v>
+      </c>
+      <c r="S12" s="33">
         <f t="shared" si="4"/>
-        <v>0.59057043073341098</v>
+        <v>0.64409555601919466</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="11">
         <v>2100</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>3600</v>
       </c>
       <c r="D13" s="2">
@@ -1678,56 +2016,56 @@
         <v>35</v>
       </c>
       <c r="F13" s="11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G13" s="11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="12"/>
-        <v>1.3142857142857143</v>
+        <v>1.3714285714285714</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="13"/>
-        <v>34500</v>
+        <v>40500</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="14"/>
-        <v>34500</v>
+        <v>31500</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="9"/>
-        <v>100053</v>
+        <v>109569</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="10"/>
-        <v>104840</v>
+        <v>99734</v>
       </c>
       <c r="N13" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O13" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="15"/>
-        <v>121950</v>
+        <v>132872</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="16"/>
-        <v>66960</v>
-      </c>
-      <c r="R13" s="18">
+        <v>91986</v>
+      </c>
+      <c r="R13" s="32">
         <f t="shared" si="3"/>
-        <v>0.54931690112295783</v>
-      </c>
-      <c r="S13" s="18">
+        <v>0.54805911541364705</v>
+      </c>
+      <c r="S13" s="32">
         <f t="shared" si="4"/>
-        <v>0.389755529685681</v>
+        <v>0.47979344877947006</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1748,56 +2086,56 @@
         <v>35</v>
       </c>
       <c r="F14" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" s="11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="12"/>
-        <v>1.3142857142857143</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="13"/>
-        <v>103500</v>
+        <v>112500</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="14"/>
-        <v>103500</v>
+        <v>90000</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="9"/>
-        <v>203553</v>
+        <v>222069</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="10"/>
-        <v>208340</v>
+        <v>189734</v>
       </c>
       <c r="N14" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O14" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="15"/>
-        <v>18450</v>
+        <v>20372</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="16"/>
-        <v>-36540</v>
-      </c>
-      <c r="R14" s="18">
+        <v>1986</v>
+      </c>
+      <c r="R14" s="32">
         <f t="shared" si="3"/>
-        <v>8.3106985040742695E-2</v>
-      </c>
-      <c r="S14" s="18">
+        <v>8.4028691516698908E-2</v>
+      </c>
+      <c r="S14" s="32">
         <f t="shared" si="4"/>
-        <v>-0.21268917345750873</v>
+        <v>1.0358856665971208E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1818,56 +2156,56 @@
         <v>35</v>
       </c>
       <c r="F15" s="11">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2">
         <f>SUM(F15:G15)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="12"/>
-        <v>1.4857142857142858</v>
+        <v>1.5428571428571429</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="13"/>
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="14"/>
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="9"/>
-        <v>229553</v>
+        <v>252069</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="10"/>
-        <v>234340</v>
+        <v>213734</v>
       </c>
       <c r="N15" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O15" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="15"/>
-        <v>-7550</v>
+        <v>-9628</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="16"/>
-        <v>-62540</v>
-      </c>
-      <c r="R15" s="18">
+        <v>-22014</v>
+      </c>
+      <c r="R15" s="32">
         <f>P15/N15</f>
-        <v>-3.4008549434016655E-2</v>
-      </c>
-      <c r="S15" s="18">
+        <v>-3.9712754855820591E-2</v>
+      </c>
+      <c r="S15" s="32">
         <f t="shared" si="4"/>
-        <v>-0.36402793946449358</v>
+        <v>-0.11482370123096182</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1888,10 +2226,10 @@
         <v>35</v>
       </c>
       <c r="F16" s="11">
-        <v>19.5</v>
-      </c>
-      <c r="G16" s="16">
-        <v>19.5</v>
+        <v>22</v>
+      </c>
+      <c r="G16" s="11">
+        <v>17</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="11"/>
@@ -1903,41 +2241,41 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="13"/>
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="14"/>
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N16" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O16" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="15"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="16"/>
-        <v>-82040</v>
-      </c>
-      <c r="R16" s="18">
+        <v>-39014</v>
+      </c>
+      <c r="R16" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S16" s="18">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S16" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.3">
@@ -1963,33 +2301,33 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="10"/>
-        <v>253840</v>
-      </c>
-      <c r="N17" s="13">
-        <v>222003</v>
-      </c>
-      <c r="O17" s="13">
-        <v>171800</v>
+        <v>230734</v>
+      </c>
+      <c r="N17" s="2">
+        <v>242441</v>
+      </c>
+      <c r="O17" s="2">
+        <v>191720</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="15"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="16"/>
-        <v>-82040</v>
-      </c>
-      <c r="R17" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R17" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S17" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S17" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.3">
@@ -2015,33 +2353,33 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N18" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O18" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="15"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="16"/>
-        <v>-82040</v>
-      </c>
-      <c r="R18" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R18" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S18" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S18" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.3">
@@ -2067,33 +2405,33 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N19" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O19" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="15"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="16"/>
-        <v>-82040</v>
-      </c>
-      <c r="R19" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R19" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S19" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S19" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.3">
@@ -2119,33 +2457,33 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N20" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O20" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="15"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="16"/>
-        <v>-82040</v>
-      </c>
-      <c r="R20" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R20" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S20" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S20" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.3">
@@ -2171,33 +2509,33 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N21" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O21" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21:P22" si="21">N21-L21</f>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21:Q22" si="22">O21-M21</f>
-        <v>-82040</v>
-      </c>
-      <c r="R21" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R21" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S21" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S21" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
       </c>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.3">
@@ -2223,37 +2561,1816 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="9"/>
-        <v>249053</v>
+        <v>274069</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="10"/>
-        <v>253840</v>
+        <v>230734</v>
       </c>
       <c r="N22" s="2">
-        <v>222003</v>
+        <v>242441</v>
       </c>
       <c r="O22" s="2">
-        <v>171800</v>
+        <v>191720</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="21"/>
-        <v>-27050</v>
+        <v>-31628</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="22"/>
-        <v>-82040</v>
-      </c>
-      <c r="R22" s="14">
+        <v>-39014</v>
+      </c>
+      <c r="R22" s="32">
         <f t="shared" si="3"/>
-        <v>-0.12184520029008616</v>
-      </c>
-      <c r="S22" s="14">
+        <v>-0.13045648219566822</v>
+      </c>
+      <c r="S22" s="32">
         <f t="shared" si="4"/>
-        <v>-0.47753201396973227</v>
+        <v>-0.20349467974128937</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="J24" s="3">
+        <f>SUM(J2,J5,J7,J9)</f>
+        <v>19223</v>
+      </c>
+      <c r="K24" s="3">
+        <f>SUM(K2,K5,K7,K9)</f>
+        <v>20185</v>
+      </c>
+      <c r="L24" s="3">
+        <f>L22-J24</f>
+        <v>254846</v>
+      </c>
+      <c r="M24" s="3">
+        <f>M22-K24</f>
+        <v>210549</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <f>SUM(L22:M22)</f>
+        <v>504803</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f>39*0.55</f>
+        <v>21.450000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="19">
+        <v>57720</v>
+      </c>
+      <c r="F2" s="19">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="G2" s="28">
+        <f>E2*F2</f>
+        <v>2200863.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>367.41</v>
+      </c>
+      <c r="G3" s="28">
+        <f>E3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1421.49</v>
+      </c>
+      <c r="G4" s="28">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19">
+        <v>131160</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1442</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" ref="G5:G31" si="0">E5*F5</f>
+        <v>189132720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19">
+        <v>185843</v>
+      </c>
+      <c r="F6" s="19">
+        <v>650.79</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>120944765.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19">
+        <v>46103</v>
+      </c>
+      <c r="F7" s="19">
+        <v>499.32</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>23020149.960000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19">
+        <v>442.58699999999999</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1395.03</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>617422.14260999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1032.704</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2185.1</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>2256561.5104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5976</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1905.43</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>11386849.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="19">
+        <v>13944</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2466.67</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>34395246.480000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19">
+        <v>159440</v>
+      </c>
+      <c r="F12" s="19">
+        <v>299.3</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>47720392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2">
+        <v>153668</v>
+      </c>
+      <c r="F13" s="2">
+        <v>206.37</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>31712465.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2">
+        <v>699.16600000000005</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1316.45</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>920417.08070000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2">
+        <v>349.58300000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4564.59</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>1595703.0659700001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>349.58300000000003</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5028.49</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>1757874.6196700002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23384.661</v>
+      </c>
+      <c r="F17" s="2">
+        <v>250.13</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>5849205.25593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2">
+        <v>200</v>
+      </c>
+      <c r="F18" s="2">
+        <v>218.36</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>262.3</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>141.72</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>508581.43</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>1017162.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>48100</v>
+      </c>
+      <c r="F22" s="2">
+        <v>33.94</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>1632514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1871.325</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="0"/>
+        <v>3742.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2760</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5772</v>
+      </c>
+      <c r="F25" s="2">
+        <v>193.92</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
+        <v>1119306.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>14932.16</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>90.32</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>695.99</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>238.12</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9">
+        <v>14.43</v>
+      </c>
+      <c r="F30" s="9">
+        <v>13107.46</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" si="0"/>
+        <v>189140.64779999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>263387.5</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="F33">
+        <f>SUMPRODUCT(E2:E30,F2:F30)</f>
+        <v>477516174.92308003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="16">
+        <f>SUMIF($C$2:$C$31,"=C",$G$2:$G$31)</f>
+        <v>355859582.13000005</v>
+      </c>
+      <c r="D36" s="14">
+        <f>C36/$C$40</f>
+        <v>0.74523042530930628</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16">
+        <f>SUMIF($C$2:$C$31,"=G",$G$2:$G$31)</f>
+        <v>79432857.159999996</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" ref="D37:D39" si="1">C37/$C$40</f>
+        <v>0.16634589848772202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="16">
+        <f>SUMIF($C$2:$C$31,"=P",$G$2:$G$31)</f>
+        <v>37369452.523079999</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="1"/>
+        <v>7.8257982630849307E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="16">
+        <f>SUMIF($C$2:$C$31,"=a",$G$2:$G$31)</f>
+        <v>4854283.1100000003</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0165693572122336E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="16">
+        <f>SUM(C36:C39)</f>
+        <v>477516174.92308009</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="2">
+        <f>E13*0.133</f>
+        <v>20437.844000000001</v>
+      </c>
+      <c r="D42">
+        <v>222003</v>
+      </c>
+      <c r="E42">
+        <f>C42+D42</f>
+        <v>242440.84400000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2">
+        <f>E10+E11</f>
+        <v>19920</v>
+      </c>
+      <c r="D43">
+        <v>171800</v>
+      </c>
+      <c r="E43">
+        <f>C43+D43</f>
+        <v>191720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="24">
+        <v>390000</v>
+      </c>
+      <c r="F2" s="22">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="G2" s="24">
+        <f>E2*F2</f>
+        <v>14870700.000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="24">
+        <v>159</v>
+      </c>
+      <c r="F3" s="22">
+        <v>367.41</v>
+      </c>
+      <c r="G3" s="24">
+        <f>E3*F3</f>
+        <v>58418.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="24">
+        <v>15</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1421.49</v>
+      </c>
+      <c r="G4" s="24">
+        <f>E4*F4</f>
+        <v>21322.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1131194</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1442</v>
+      </c>
+      <c r="G5" s="24">
+        <f t="shared" ref="G5:G31" si="0">E5*F5</f>
+        <v>1631181748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1602801</v>
+      </c>
+      <c r="F6" s="22">
+        <v>650.79</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
+        <v>1043086862.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="24">
+        <v>411975</v>
+      </c>
+      <c r="F7" s="22">
+        <v>499.32</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" si="0"/>
+        <v>205707357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3954.96</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1395.03</v>
+      </c>
+      <c r="G8" s="24">
+        <f t="shared" si="0"/>
+        <v>5517287.8487999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="24">
+        <v>9228.24</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2185.1</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>20164627.223999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="24">
+        <v>51540.044999999998</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1905.43</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" si="0"/>
+        <v>98205947.944350004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="24">
+        <v>120260.015</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2466.67</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="0"/>
+        <v>296641771.20005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="24">
+        <v>939610</v>
+      </c>
+      <c r="F12" s="22">
+        <v>299.3</v>
+      </c>
+      <c r="G12" s="24">
+        <f t="shared" si="0"/>
+        <v>281225273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1669920</v>
+      </c>
+      <c r="F13" s="2">
+        <v>206.37</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>344621390.40000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="24">
+        <v>6624.52</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1316.45</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>8720849.3540000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3312.26</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4564.59</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>15119108.873400001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3312.2669999999998</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5028.49</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>16655701.486829998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="24">
+        <v>99519.773000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>250.13</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>24892880.820489999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="24">
+        <v>28267.200000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>218.36</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>6172425.7920000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="24">
+        <v>133502</v>
+      </c>
+      <c r="F19" s="2">
+        <v>262.3</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>35017574.600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="24">
+        <v>246313.44</v>
+      </c>
+      <c r="F20" s="2">
+        <v>141.72</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>34907540.716799997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="24">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>508581.43</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>8137302.8799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="24">
+        <v>780000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>33.94</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>26473200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="24">
+        <v>81</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1871.325</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="0"/>
+        <v>151577.32500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="24">
+        <v>81</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2760</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="0"/>
+        <v>223560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="24">
+        <v>199.27699999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>193.92</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
+        <v>38643.795839999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="24">
+        <v>199.26599999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>14932.16</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="0"/>
+        <v>2975471.7945599998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="24">
+        <v>13338.06</v>
+      </c>
+      <c r="F27" s="2">
+        <v>90.32</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="0"/>
+        <v>1204693.5791999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="24">
+        <v>830.23</v>
+      </c>
+      <c r="F28" s="2">
+        <v>695.99</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="0"/>
+        <v>577831.77769999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="24">
+        <v>7288.5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>238.12</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="0"/>
+        <v>1735537.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="24">
+        <v>117.75</v>
+      </c>
+      <c r="F30" s="2">
+        <v>13107.46</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="0"/>
+        <v>1543403.4149999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="24">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>263387.5</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="0"/>
+        <v>1580325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="F33" s="17">
+        <f>SUMPRODUCT(E2:E31,F2:F31)</f>
+        <v>4127430334.7780194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="16">
+        <f>SUMIF($C$2:$C$31,"=C",$G$2:$G$31)</f>
+        <v>3069116329.9344001</v>
+      </c>
+      <c r="D36" s="14">
+        <f>C36/$C$40</f>
+        <v>0.74359009868048132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16">
+        <f>SUMIF($C$2:$C$31,"=G",$G$2:$G$31)</f>
+        <v>625846663.4000001</v>
+      </c>
+      <c r="D37" s="14">
+        <f t="shared" ref="D37:D39" si="1">C37/$C$40</f>
+        <v>0.151631066459577</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="16">
+        <f>SUMIF($C$2:$C$31,"=P",$G$2:$G$31)</f>
+        <v>304590703.80036008</v>
+      </c>
+      <c r="D38" s="14">
+        <f t="shared" si="1"/>
+        <v>7.3796691668871359E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="16">
+        <f>SUMIF($C$2:$C$31,"=a",$G$2:$G$31)</f>
+        <v>127876637.64326</v>
+      </c>
+      <c r="D39" s="14">
+        <f t="shared" si="1"/>
+        <v>3.0982143191070337E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="16">
+        <f>SUM(C36:C39)</f>
+        <v>4127430334.7780204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O13:O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design_volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="dumping_volume_provided" sheetId="3" r:id="rId3"/>
     <sheet name="Rehab_Estimate" sheetId="4" r:id="rId4"/>
     <sheet name="New_Estimate" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Endtermination" sheetId="8" r:id="rId6"/>
+    <sheet name="New_PW_Vol_Back_Calc" sheetId="11" r:id="rId7"/>
+    <sheet name="Block_cost_comparision" sheetId="9" r:id="rId8"/>
+    <sheet name="Back_calcualtion_protective_wor" sheetId="5" r:id="rId9"/>
+    <sheet name="Unit_Cost_Calcualtion" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -357,16 +361,220 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Geogas</t>
+  </si>
+  <si>
+    <t>cc block/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bag </t>
+  </si>
+  <si>
+    <t>CC Block</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>area(sqm)</t>
+  </si>
+  <si>
+    <t>Block_size</t>
+  </si>
+  <si>
+    <t>old rate</t>
+  </si>
+  <si>
+    <t>18 Mpa_new</t>
+  </si>
+  <si>
+    <t>15 Mpa_new</t>
+  </si>
+  <si>
+    <t>12 Mpa_new</t>
+  </si>
+  <si>
+    <t>10.5 Mpa_new</t>
+  </si>
+  <si>
+    <t>Brickblock</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>strength_reduction</t>
+  </si>
+  <si>
+    <t>50X50X38 Brick Block</t>
+  </si>
+  <si>
+    <t>Pitching Cost</t>
+  </si>
+  <si>
+    <t>Pitching_sqm</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>DPP_rate</t>
+  </si>
+  <si>
+    <t>Uintcost/sqm</t>
+  </si>
+  <si>
+    <t>old_unit_rate</t>
+  </si>
+  <si>
+    <t>CC block_dumping</t>
+  </si>
+  <si>
+    <t>Block_manufature</t>
+  </si>
+  <si>
+    <t>Block Dumping</t>
+  </si>
+  <si>
+    <t>Unitcost/cum</t>
+  </si>
+  <si>
+    <t>new_rate_18mpa</t>
+  </si>
+  <si>
+    <t>18mpa</t>
+  </si>
+  <si>
+    <t>new_18</t>
+  </si>
+  <si>
+    <t>new_15</t>
+  </si>
+  <si>
+    <t>new_12</t>
+  </si>
+  <si>
+    <t>new_10</t>
+  </si>
+  <si>
+    <t>CC Block dumping</t>
+  </si>
+  <si>
+    <t>Geobag Dumping</t>
+  </si>
+  <si>
+    <t>Bagsupply</t>
+  </si>
+  <si>
+    <t>Bagdumping</t>
+  </si>
+  <si>
+    <t>Brick_block</t>
+  </si>
+  <si>
+    <t>Short_description</t>
+  </si>
+  <si>
+    <t>New_rate</t>
+  </si>
+  <si>
+    <t>End_Temination_cost</t>
+  </si>
+  <si>
+    <t>geobag</t>
+  </si>
+  <si>
+    <t>ccbock</t>
+  </si>
+  <si>
+    <t>pitching</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Dpp</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>9 end termination</t>
+  </si>
+  <si>
+    <t>Total Fund</t>
+  </si>
+  <si>
+    <t>Less End Termination</t>
+  </si>
+  <si>
+    <t>Less 7800m</t>
+  </si>
+  <si>
+    <t>Fund for 2500m PW</t>
+  </si>
+  <si>
+    <t>CC_block</t>
+  </si>
+  <si>
+    <t>Geobag</t>
+  </si>
+  <si>
+    <t>Volume calcualtion</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>Total DPP Volume</t>
+  </si>
+  <si>
+    <t>reahab</t>
+  </si>
+  <si>
+    <t>end_termination</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="GlyphLessFont"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -479,11 +687,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,9 +736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,6 +777,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,12 +1097,558 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:R39"/>
+  <sheetViews>
+    <sheetView topLeftCell="E17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:18">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18">
+      <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1442.18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1473.01</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1439.56</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1401.84</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1366.89</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="2">
+        <f>(45/100)^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+      <c r="P7">
+        <f>H7/N7</f>
+        <v>15826.392318244169</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>L7/N7</f>
+        <v>15000.164609053498</v>
+      </c>
+      <c r="R7">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>650.79</v>
+      </c>
+      <c r="I8" s="2">
+        <v>691.87</v>
+      </c>
+      <c r="J8" s="2">
+        <v>676.16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>658.44</v>
+      </c>
+      <c r="L8" s="4">
+        <v>642.03</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="2">
+        <f>(35/100)^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O10" si="0">I8/N8</f>
+        <v>16136.909620991257</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>L8/N8</f>
+        <v>14974.460641399421</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18">
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2">
+        <v>499.32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>515.97</v>
+      </c>
+      <c r="J9" s="2">
+        <v>504.25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>491.04</v>
+      </c>
+      <c r="L9" s="4">
+        <v>478.4</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="5:18">
+      <c r="F10" s="5"/>
+      <c r="G10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2">
+        <v>759.98</v>
+      </c>
+      <c r="N10" s="2">
+        <f>((50/100)^2)*(38/100)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>M10/N10</f>
+        <v>7999.7894736842109</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18">
+      <c r="G12" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12">
+        <f>H7/(0.45^3)</f>
+        <v>15826.392318244169</v>
+      </c>
+      <c r="K12">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" s="34" customFormat="1">
+      <c r="E14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" s="34" customFormat="1">
+      <c r="E15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="H15" s="21">
+        <v>499.32</v>
+      </c>
+      <c r="I15" s="2">
+        <v>515.97</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" s="34" customFormat="1">
+      <c r="E16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1395.03</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1586.93</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" s="34" customFormat="1">
+      <c r="E17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="21">
+        <v>2185.1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2486.73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" s="34" customFormat="1">
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1316.45</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1344.22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" s="34" customFormat="1">
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H19" s="21">
+        <v>4564.59</v>
+      </c>
+      <c r="I19" s="21">
+        <v>4900.41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" s="34" customFormat="1">
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="21">
+        <v>5028.49</v>
+      </c>
+      <c r="I20" s="21">
+        <v>5401.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" s="34" customFormat="1">
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21">
+        <v>250.13</v>
+      </c>
+      <c r="I21" s="21">
+        <v>286.16000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" s="34" customFormat="1">
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="21">
+        <v>218.36</v>
+      </c>
+      <c r="I22" s="21">
+        <v>248.87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" s="34" customFormat="1">
+      <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="24">
+        <f>SUMPRODUCT(G15:G22,H15:H22)</f>
+        <v>4437.3027999999995</v>
+      </c>
+      <c r="I23" s="24">
+        <f>SUMPRODUCT(G15:G22,I15:I22)</f>
+        <v>4678.509</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" s="34" customFormat="1">
+      <c r="F24" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" s="34" customFormat="1">
+      <c r="C25" s="35"/>
+      <c r="E25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" s="34" customFormat="1">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="2">
+        <v>15827</v>
+      </c>
+      <c r="G26" s="2">
+        <v>16164</v>
+      </c>
+      <c r="H26" s="5">
+        <v>15797.640603566528</v>
+      </c>
+      <c r="I26" s="2">
+        <v>15383.703703703701</v>
+      </c>
+      <c r="J26" s="5">
+        <v>15000.164609053498</v>
+      </c>
+      <c r="K26" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" s="34" customFormat="1">
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2467</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2796</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2796</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2796</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2796</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="E28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="2">
+        <f>F26+F27</f>
+        <v>18294</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM(G26:G27)</f>
+        <v>18960</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:J28" si="1">SUM(H26:H27)</f>
+        <v>18593.640603566528</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>18179.703703703701</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>17796.1646090535</v>
+      </c>
+      <c r="K28" s="2">
+        <f>SUM(K26:K27)</f>
+        <v>10796</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="F30" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="F31" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="E32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="23">
+        <v>2250.375939849624</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2675.7894736842104</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1551.6541353383459</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1587.593984962406</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="F34" s="2">
+        <f>F32+F33</f>
+        <v>3802.0300751879699</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUM(G32:G33)</f>
+        <v>4263.3834586466164</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="F39" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -866,7 +1660,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
@@ -876,7 +1670,7 @@
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -946,7 +1740,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1779,7 @@
         <v>96750</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1818,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1857,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1896,7 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1124,17 +1918,17 @@
         <v>154920</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="G9" s="3">
         <v>51540</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="G10" s="3">
         <v>120560</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="G11" s="1">
         <f>SUM(G9:G10)</f>
         <v>172100</v>
@@ -1149,11 +1943,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="F14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="12"/>
@@ -1171,14 +1965,14 @@
     <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1230,8 +2024,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11">
@@ -1261,11 +2055,11 @@
         <f>H2/E2</f>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <f>F2*D2</f>
         <v>2679</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="33">
         <f>G2*D2</f>
         <v>2820</v>
       </c>
@@ -1276,30 +2070,30 @@
         <f>K2</f>
         <v>2820</v>
       </c>
-      <c r="N2" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O2" s="2">
-        <v>191720</v>
+      <c r="N2" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O2" s="40">
+        <v>235387</v>
       </c>
       <c r="P2" s="2">
         <f>N2-L2</f>
-        <v>239762</v>
+        <v>282020</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q6" si="0">O2-M2</f>
-        <v>188900</v>
-      </c>
-      <c r="R2" s="32">
+        <v>232567</v>
+      </c>
+      <c r="R2" s="31">
         <f>P2/N2</f>
-        <v>0.98894988883893398</v>
-      </c>
-      <c r="S2" s="32">
+        <v>0.99059006178455145</v>
+      </c>
+      <c r="S2" s="31">
         <f>Q2/O2</f>
-        <v>0.98529104944711032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.98801972921189363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1346,30 +2140,30 @@
         <f>M2+K3</f>
         <v>13020</v>
       </c>
-      <c r="N3" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O3" s="2">
-        <v>191720</v>
+      <c r="N3" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O3" s="40">
+        <v>235387</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" si="2">N3-L3</f>
-        <v>230072</v>
+        <v>272330</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="0"/>
-        <v>178700</v>
-      </c>
-      <c r="R3" s="32">
+        <v>222367</v>
+      </c>
+      <c r="R3" s="31">
         <f t="shared" ref="R3:R22" si="3">P3/N3</f>
-        <v>0.94898140166061018</v>
-      </c>
-      <c r="S3" s="32">
+        <v>0.9565541150478224</v>
+      </c>
+      <c r="S3" s="31">
         <f t="shared" ref="S3:S22" si="4">Q3/O3</f>
-        <v>0.9320884623409138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.94468683487193428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1416,31 +2210,31 @@
         <f t="shared" ref="M4:M22" si="10">M3+K4</f>
         <v>15722.5</v>
       </c>
-      <c r="N4" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O4" s="2">
-        <v>191720</v>
+      <c r="N4" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O4" s="40">
+        <v>235387</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="2"/>
-        <v>227484.5</v>
+        <v>269742.5</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>175997.5</v>
-      </c>
-      <c r="R4" s="32">
+        <v>219664.5</v>
+      </c>
+      <c r="R4" s="31">
         <f t="shared" si="3"/>
-        <v>0.93830870191098037</v>
-      </c>
-      <c r="S4" s="32">
+        <v>0.94746556889908284</v>
+      </c>
+      <c r="S4" s="31">
         <f t="shared" si="4"/>
-        <v>0.91799238472772793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+        <v>0.9332057420333324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="11">
@@ -1470,11 +2264,11 @@
         <f t="shared" si="6"/>
         <v>1.0222222222222221</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>F5*D5</f>
         <v>6075</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f>G5*D5</f>
         <v>6345</v>
       </c>
@@ -1486,30 +2280,30 @@
         <f t="shared" si="10"/>
         <v>22067.5</v>
       </c>
-      <c r="N5" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O5" s="2">
-        <v>191720</v>
+      <c r="N5" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O5" s="40">
+        <v>235387</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>221409.5</v>
+        <v>263667.5</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>169652.5</v>
-      </c>
-      <c r="R5" s="32">
+        <v>213319.5</v>
+      </c>
+      <c r="R5" s="31">
         <f t="shared" si="3"/>
-        <v>0.91325105902054515</v>
-      </c>
-      <c r="S5" s="32">
+        <v>0.92612724315856398</v>
+      </c>
+      <c r="S5" s="31">
         <f t="shared" si="4"/>
-        <v>0.88489724598372632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.90625013276009292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1556,31 +2350,31 @@
         <f t="shared" si="10"/>
         <v>24770</v>
       </c>
-      <c r="N6" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O6" s="2">
-        <v>191720</v>
+      <c r="N6" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O6" s="40">
+        <v>235387</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>218822</v>
+        <v>261080</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>166950</v>
-      </c>
-      <c r="R6" s="32">
+        <v>210617</v>
+      </c>
+      <c r="R6" s="31">
         <f t="shared" si="3"/>
-        <v>0.90257835927091534</v>
-      </c>
-      <c r="S6" s="32">
+        <v>0.91703869700982443</v>
+      </c>
+      <c r="S6" s="31">
         <f t="shared" si="4"/>
-        <v>0.87080116837054033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+        <v>0.89476903992149104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="11">
@@ -1606,15 +2400,15 @@
         <f t="shared" ref="H7:H20" si="11">SUM(F7:G7)</f>
         <v>39</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f t="shared" ref="I7:I20" si="12">H7/E7</f>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <f t="shared" ref="J7:J20" si="13">F7*D7</f>
         <v>7790</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" ref="K7:K20" si="14">G7*D7</f>
         <v>8200</v>
       </c>
@@ -1626,30 +2420,30 @@
         <f t="shared" si="10"/>
         <v>32970</v>
       </c>
-      <c r="N7" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O7" s="2">
-        <v>191720</v>
+      <c r="N7" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O7" s="40">
+        <v>235387</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ref="P7:P20" si="15">N7-L7</f>
-        <v>211032</v>
+        <v>253290</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ref="Q7:Q20" si="16">O7-M7</f>
-        <v>158750</v>
-      </c>
-      <c r="R7" s="32">
+        <v>202417</v>
+      </c>
+      <c r="R7" s="31">
         <f t="shared" si="3"/>
-        <v>0.8704468303628512</v>
-      </c>
-      <c r="S7" s="32">
+        <v>0.88967646531951294</v>
+      </c>
+      <c r="S7" s="31">
         <f t="shared" si="4"/>
-        <v>0.82803046108908829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.85993279153054336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1696,31 +2490,31 @@
         <f t="shared" si="10"/>
         <v>37170</v>
       </c>
-      <c r="N8" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O8" s="2">
-        <v>191720</v>
+      <c r="N8" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O8" s="40">
+        <v>235387</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="15"/>
-        <v>207042</v>
+        <v>249300</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="16"/>
-        <v>154550</v>
-      </c>
-      <c r="R8" s="32">
+        <v>198217</v>
+      </c>
+      <c r="R8" s="31">
         <f t="shared" si="3"/>
-        <v>0.85398921799530603</v>
-      </c>
-      <c r="S8" s="32">
+        <v>0.87566166372203624</v>
+      </c>
+      <c r="S8" s="31">
         <f t="shared" si="4"/>
-        <v>0.80612351345712496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+        <v>0.84208983503761892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="11">
@@ -1750,11 +2544,11 @@
         <f t="shared" si="12"/>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <f t="shared" si="13"/>
         <v>2679</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f t="shared" si="14"/>
         <v>2820</v>
       </c>
@@ -1766,30 +2560,30 @@
         <f t="shared" si="10"/>
         <v>39990</v>
       </c>
-      <c r="N9" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O9" s="2">
-        <v>191720</v>
+      <c r="N9" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O9" s="40">
+        <v>235387</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="15"/>
-        <v>204363</v>
+        <v>246621</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="16"/>
-        <v>151730</v>
-      </c>
-      <c r="R9" s="32">
+        <v>195397</v>
+      </c>
+      <c r="R9" s="31">
         <f t="shared" si="3"/>
-        <v>0.84293910683424011</v>
-      </c>
-      <c r="S9" s="32">
+        <v>0.86625172550658769</v>
+      </c>
+      <c r="S9" s="31">
         <f t="shared" si="4"/>
-        <v>0.7914145629042354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.83010956424951254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1836,30 +2630,30 @@
         <f t="shared" si="10"/>
         <v>50844</v>
       </c>
-      <c r="N10" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O10" s="2">
-        <v>191720</v>
+      <c r="N10" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O10" s="40">
+        <v>235387</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="15"/>
-        <v>191700</v>
+        <v>233958</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="16"/>
-        <v>140876</v>
-      </c>
-      <c r="R10" s="32">
+        <v>184543</v>
+      </c>
+      <c r="R10" s="31">
         <f t="shared" si="3"/>
-        <v>0.79070784232039959</v>
-      </c>
-      <c r="S10" s="32">
+        <v>0.82177317096301705</v>
+      </c>
+      <c r="S10" s="31">
         <f t="shared" si="4"/>
-        <v>0.73480075109534737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.78399826668422645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1906,99 +2700,99 @@
         <f t="shared" si="10"/>
         <v>56994</v>
       </c>
-      <c r="N11" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O11" s="2">
-        <v>191720</v>
+      <c r="N11" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O11" s="40">
+        <v>235387</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="15"/>
-        <v>184050</v>
+        <v>226308</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="16"/>
-        <v>134726</v>
-      </c>
-      <c r="R11" s="32">
+        <v>178393</v>
+      </c>
+      <c r="R11" s="31">
         <f t="shared" si="3"/>
-        <v>0.75915377349540714</v>
-      </c>
-      <c r="S11" s="32">
+        <v>0.79490268669717845</v>
+      </c>
+      <c r="S11" s="31">
         <f t="shared" si="4"/>
-        <v>0.70272272063425834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+        <v>0.75787108039101569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="45">
         <v>2700</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="45">
         <v>3262</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="45">
         <f t="shared" si="1"/>
         <v>562</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="45">
         <v>38</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="45">
         <v>19</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="45">
         <v>20</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="45">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="45">
         <f t="shared" si="12"/>
         <v>1.0263157894736843</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="45">
         <f t="shared" si="13"/>
         <v>10678</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="45">
         <f t="shared" si="14"/>
         <v>11240</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="2">
         <f>L11+J12</f>
         <v>69069</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="2">
         <f t="shared" si="10"/>
         <v>68234</v>
       </c>
-      <c r="N12" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O12" s="2">
-        <v>191720</v>
+      <c r="N12" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O12" s="40">
+        <v>235387</v>
       </c>
       <c r="P12" s="2">
         <v>191720</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="45">
         <f t="shared" si="16"/>
-        <v>123486</v>
-      </c>
-      <c r="R12" s="33">
+        <v>167153</v>
+      </c>
+      <c r="R12" s="32">
         <f>P12/N12</f>
-        <v>0.79079033661798126</v>
-      </c>
-      <c r="S12" s="33">
+        <v>0.67341297299955394</v>
+      </c>
+      <c r="S12" s="32">
         <f t="shared" si="4"/>
-        <v>0.64409555601919466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.71011993015757024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2045,30 +2839,30 @@
         <f t="shared" si="10"/>
         <v>99734</v>
       </c>
-      <c r="N13" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O13" s="2">
-        <v>191720</v>
+      <c r="N13" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O13" s="40">
+        <v>235387</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="15"/>
-        <v>132872</v>
+        <v>175130</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="16"/>
-        <v>91986</v>
-      </c>
-      <c r="R13" s="32">
+        <v>135653</v>
+      </c>
+      <c r="R13" s="31">
         <f t="shared" si="3"/>
-        <v>0.54805911541364705</v>
-      </c>
-      <c r="S13" s="32">
+        <v>0.61514090319951953</v>
+      </c>
+      <c r="S13" s="31">
         <f t="shared" si="4"/>
-        <v>0.47979344877947006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.57629775646063719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -2115,30 +2909,30 @@
         <f t="shared" si="10"/>
         <v>189734</v>
       </c>
-      <c r="N14" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O14" s="2">
-        <v>191720</v>
+      <c r="N14" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O14" s="40">
+        <v>235387</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="15"/>
-        <v>20372</v>
+        <v>62630</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="16"/>
-        <v>1986</v>
-      </c>
-      <c r="R14" s="32">
+        <v>45653</v>
+      </c>
+      <c r="R14" s="31">
         <f t="shared" si="3"/>
-        <v>8.4028691516698908E-2</v>
-      </c>
-      <c r="S14" s="32">
+        <v>0.21998672281953924</v>
+      </c>
+      <c r="S14" s="31">
         <f t="shared" si="4"/>
-        <v>1.0358856665971208E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.19394868875511392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2185,30 +2979,30 @@
         <f t="shared" si="10"/>
         <v>213734</v>
       </c>
-      <c r="N15" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O15" s="2">
-        <v>191720</v>
+      <c r="N15" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O15" s="40">
+        <v>235387</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="15"/>
-        <v>-9628</v>
+        <v>32630</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="16"/>
-        <v>-22014</v>
-      </c>
-      <c r="R15" s="32">
+        <v>21653</v>
+      </c>
+      <c r="R15" s="31">
         <f>P15/N15</f>
-        <v>-3.9712754855820591E-2</v>
-      </c>
-      <c r="S15" s="32">
+        <v>0.11461227471821116</v>
+      </c>
+      <c r="S15" s="31">
         <f t="shared" si="4"/>
-        <v>-0.11482370123096182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>9.1988937366974388E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2255,134 +3049,140 @@
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N16" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O16" s="2">
-        <v>191720</v>
+      <c r="N16" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O16" s="40">
+        <v>235387</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="15"/>
-        <v>-31628</v>
+        <v>10630</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="16"/>
-        <v>-39014</v>
-      </c>
-      <c r="R16" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R16" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S16" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S16" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D17" s="13">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="5"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I17" s="13" t="e">
+      <c r="I17" s="2" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="2">
         <f t="shared" si="9"/>
         <v>274069</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="2">
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N17" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O17" s="2">
-        <v>191720</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="N17" s="40">
+        <v>284699</v>
+      </c>
+      <c r="O17" s="40">
+        <v>235387</v>
+      </c>
+      <c r="P17" s="2">
         <f t="shared" si="15"/>
-        <v>-31628</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>10630</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="16"/>
-        <v>-39014</v>
-      </c>
-      <c r="R17" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R17" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S17" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S17" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="2">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2" t="e">
+      <c r="I18" s="13" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="13">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="13">
         <f t="shared" si="9"/>
         <v>274069</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="13">
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N18" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O18" s="2">
-        <v>191720</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="N18" s="39">
+        <v>284699</v>
+      </c>
+      <c r="O18" s="39">
+        <v>235387</v>
+      </c>
+      <c r="P18" s="13">
         <f t="shared" si="15"/>
-        <v>-31628</v>
-      </c>
-      <c r="Q18" s="2">
+        <v>10630</v>
+      </c>
+      <c r="Q18" s="13">
         <f t="shared" si="16"/>
-        <v>-39014</v>
-      </c>
-      <c r="R18" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R18" s="44">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S18" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S18" s="44">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2411,30 +3211,30 @@
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N19" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O19" s="2">
-        <v>191720</v>
+      <c r="N19" s="39">
+        <v>284699</v>
+      </c>
+      <c r="O19" s="39">
+        <v>235387</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="15"/>
-        <v>-31628</v>
+        <v>10630</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="16"/>
-        <v>-39014</v>
-      </c>
-      <c r="R19" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R19" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S19" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S19" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2463,30 +3263,30 @@
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N20" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O20" s="2">
-        <v>191720</v>
+      <c r="N20" s="39">
+        <v>284699</v>
+      </c>
+      <c r="O20" s="39">
+        <v>235387</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="15"/>
-        <v>-31628</v>
+        <v>10630</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="16"/>
-        <v>-39014</v>
-      </c>
-      <c r="R20" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R20" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S20" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S20" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="D21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2515,30 +3315,30 @@
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N21" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O21" s="2">
-        <v>191720</v>
+      <c r="N21" s="39">
+        <v>284699</v>
+      </c>
+      <c r="O21" s="39">
+        <v>235387</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21:P22" si="21">N21-L21</f>
-        <v>-31628</v>
+        <v>10630</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21:Q22" si="22">O21-M21</f>
-        <v>-39014</v>
-      </c>
-      <c r="R21" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R21" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S21" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S21" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2567,30 +3367,30 @@
         <f t="shared" si="10"/>
         <v>230734</v>
       </c>
-      <c r="N22" s="2">
-        <v>242441</v>
-      </c>
-      <c r="O22" s="2">
-        <v>191720</v>
+      <c r="N22" s="39">
+        <v>284699</v>
+      </c>
+      <c r="O22" s="39">
+        <v>235387</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="21"/>
-        <v>-31628</v>
+        <v>10630</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="22"/>
-        <v>-39014</v>
-      </c>
-      <c r="R22" s="32">
+        <v>4653</v>
+      </c>
+      <c r="R22" s="31">
         <f t="shared" si="3"/>
-        <v>-0.13045648219566822</v>
-      </c>
-      <c r="S22" s="32">
+        <v>3.7337679443903912E-2</v>
+      </c>
+      <c r="S22" s="31">
         <f t="shared" si="4"/>
-        <v>-0.20349467974128937</v>
-      </c>
-    </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
+        <v>1.9767446800375552E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="J24" s="3">
         <f>SUM(J2,J5,J7,J9)</f>
         <v>19223</v>
@@ -2608,13 +3408,13 @@
         <v>210549</v>
       </c>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="M25">
         <f>SUM(L22:M22)</f>
         <v>504803</v>
       </c>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="H28">
         <f>39*0.55</f>
         <v>21.450000000000003</v>
@@ -2630,22 +3430,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -2664,278 +3464,282 @@
       <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>57720</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>38.130000000000003</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <f>E2*F2</f>
         <v>2200863.6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>367.41</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <f>E3*F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1421.49</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <f>E4*F4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>131160</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1442</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <f t="shared" ref="G5:G31" si="0">E5*F5</f>
         <v>189132720</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>185843</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>650.79</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <f t="shared" si="0"/>
         <v>120944765.97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>46103</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>499.32</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
         <v>23020149.960000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>442.58699999999999</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>1395.03</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
         <v>617422.14260999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1032.704</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>2185.1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>2256561.5104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>5976</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>1905.43</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <f t="shared" si="0"/>
         <v>11386849.68</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>13944</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>2466.67</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>34395246.480000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="H11" s="1">
+        <f>SUM(E10:E11)</f>
+        <v>19920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>159440</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>299.3</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>47720392</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -2954,12 +3758,16 @@
       <c r="F13" s="2">
         <v>206.37</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>31712465.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>E13*0.133</f>
+        <v>20437.844000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -2978,12 +3786,12 @@
       <c r="F14" s="2">
         <v>1316.45</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
         <v>920417.08070000005</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -3002,12 +3810,12 @@
       <c r="F15" s="2">
         <v>4564.59</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>1595703.0659700001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -3026,12 +3834,12 @@
       <c r="F16" s="2">
         <v>5028.49</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>1757874.6196700002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -3050,12 +3858,12 @@
       <c r="F17" s="2">
         <v>250.13</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>5849205.25593</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -3074,12 +3882,12 @@
       <c r="F18" s="2">
         <v>218.36</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>43672</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -3098,12 +3906,12 @@
       <c r="F19" s="2">
         <v>262.3</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -3122,12 +3930,12 @@
       <c r="F20" s="2">
         <v>141.72</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -3146,12 +3954,12 @@
       <c r="F21" s="2">
         <v>508581.43</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>1017162.86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -3170,12 +3978,12 @@
       <c r="F22" s="2">
         <v>33.94</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>1632514</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -3194,12 +4002,12 @@
       <c r="F23" s="2">
         <v>1871.325</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>3742.65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -3218,12 +4026,12 @@
       <c r="F24" s="2">
         <v>2760</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -3242,13 +4050,13 @@
       <c r="F25" s="2">
         <v>193.92</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>1119306.24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="26" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3266,13 +4074,13 @@
       <c r="F26" s="2">
         <v>14932.16</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3290,13 +4098,13 @@
       <c r="F27" s="2">
         <v>90.32</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="26" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3314,13 +4122,13 @@
       <c r="F28" s="2">
         <v>695.99</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="26" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3338,12 +4146,12 @@
       <c r="F29" s="2">
         <v>238.12</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -3362,12 +4170,12 @@
       <c r="F30" s="9">
         <v>13107.46</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <f t="shared" si="0"/>
         <v>189140.64779999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -3386,34 +4194,34 @@
       <c r="F31" s="2">
         <v>263387.5</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:7">
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="C33" s="1"/>
       <c r="F33">
         <f>SUMPRODUCT(E2:E30,F2:F30)</f>
         <v>477516174.92308003</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <f>SUMIF($C$2:$C$31,"=C",$G$2:$G$31)</f>
         <v>355859582.13000005</v>
       </c>
@@ -3422,11 +4230,11 @@
         <v>0.74523042530930628</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>SUMIF($C$2:$C$31,"=G",$G$2:$G$31)</f>
         <v>79432857.159999996</v>
       </c>
@@ -3435,11 +4243,11 @@
         <v>0.16634589848772202</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <f>SUMIF($C$2:$C$31,"=P",$G$2:$G$31)</f>
         <v>37369452.523079999</v>
       </c>
@@ -3448,11 +4256,11 @@
         <v>7.8257982630849307E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <f>SUMIF($C$2:$C$31,"=a",$G$2:$G$31)</f>
         <v>4854283.1100000003</v>
       </c>
@@ -3461,21 +4269,21 @@
         <v>1.0165693572122336E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="16">
+    <row r="40" spans="2:6">
+      <c r="C40" s="15">
         <f>SUM(C36:C39)</f>
         <v>477516174.92308009</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="16" t="s">
+    <row r="41" spans="2:6">
+      <c r="C41" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42" s="5" t="s">
         <v>107</v>
       </c>
@@ -3491,7 +4299,7 @@
         <v>242440.84400000001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43" s="5" t="s">
         <v>108</v>
       </c>
@@ -3517,28 +4325,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="16" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>37</v>
@@ -3546,284 +4354,288 @@
       <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>390000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>38.130000000000003</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <f>E2*F2</f>
         <v>14870700.000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>159</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>367.41</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f>E3*F3</f>
         <v>58418.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>15</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>1421.49</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f>E4*F4</f>
         <v>21322.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>1131194</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>1442</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f t="shared" ref="G5:G31" si="0">E5*F5</f>
         <v>1631181748</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>1602801</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>650.79</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>1043086862.79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="27">
         <v>411975</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>499.32</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
         <v>205707357</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="27">
         <v>3954.96</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>1395.03</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
         <v>5517287.8487999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="27">
         <v>9228.24</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>2185.1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="27">
         <f t="shared" si="0"/>
         <v>20164627.223999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>51540.044999999998</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>1905.43</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>98205947.944350004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>120260.015</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>2466.67</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>296641771.20005</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="H11" s="16">
+        <f>SUM(E10:E11)</f>
+        <v>171800.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>939610</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>299.3</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
         <v>281225273</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3836,138 +4648,142 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>1669920</v>
       </c>
       <c r="F13" s="2">
         <v>206.37</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>344621390.40000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>E13*0.133</f>
+        <v>222099.36000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="27">
         <v>6624.52</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="18">
         <v>1316.45</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>8720849.3540000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="27">
         <v>3312.26</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="18">
         <v>4564.59</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>15119108.873400001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="27">
         <v>3312.2669999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="18">
         <v>5028.49</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>16655701.486829998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="27">
         <v>99519.773000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="18">
         <v>250.13</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>24892880.820489999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="27">
         <v>28267.200000000001</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="18">
         <v>218.36</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
         <v>6172425.7920000004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
@@ -3980,18 +4796,18 @@
       <c r="D19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>133502</v>
       </c>
       <c r="F19" s="2">
         <v>262.3</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
         <v>35017574.600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -4004,18 +4820,18 @@
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>246313.44</v>
       </c>
       <c r="F20" s="2">
         <v>141.72</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
         <v>34907540.716799997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -4028,18 +4844,18 @@
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>16</v>
       </c>
       <c r="F21" s="2">
         <v>508581.43</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f t="shared" si="0"/>
         <v>8137302.8799999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -4052,18 +4868,18 @@
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>780000</v>
       </c>
       <c r="F22" s="2">
         <v>33.94</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
         <v>26473200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -4076,18 +4892,18 @@
       <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>81</v>
       </c>
       <c r="F23" s="2">
         <v>1871.325</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>151577.32500000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -4100,18 +4916,18 @@
       <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>81</v>
       </c>
       <c r="F24" s="2">
         <v>2760</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <f t="shared" si="0"/>
         <v>223560</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -4124,19 +4940,19 @@
       <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>199.27699999999999</v>
       </c>
       <c r="F25" s="2">
         <v>193.92</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>38643.795839999992</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4148,19 +4964,19 @@
       <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>199.26599999999999</v>
       </c>
       <c r="F26" s="2">
         <v>14932.16</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <f t="shared" si="0"/>
         <v>2975471.7945599998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4172,19 +4988,19 @@
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>13338.06</v>
       </c>
       <c r="F27" s="2">
         <v>90.32</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f t="shared" si="0"/>
         <v>1204693.5791999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4196,19 +5012,19 @@
       <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>830.23</v>
       </c>
       <c r="F28" s="2">
         <v>695.99</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <f t="shared" si="0"/>
         <v>577831.77769999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4220,18 +5036,18 @@
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>7288.5</v>
       </c>
       <c r="F29" s="2">
         <v>238.12</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <f t="shared" si="0"/>
         <v>1735537.62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -4244,18 +5060,18 @@
       <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>117.75</v>
       </c>
       <c r="F30" s="2">
         <v>13107.46</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="17">
         <f t="shared" si="0"/>
         <v>1543403.4149999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -4268,40 +5084,46 @@
       <c r="D31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
       <c r="F31" s="2">
         <v>263387.5</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <f t="shared" si="0"/>
         <v>1580325</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:7">
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="24"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="C33" s="1"/>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <f>SUMPRODUCT(E2:E31,F2:F31)</f>
         <v>4127430334.7780194</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
+      <c r="F34">
+        <f>F33/10^5</f>
+        <v>41274.303347780195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <f>SUMIF($C$2:$C$31,"=C",$G$2:$G$31)</f>
         <v>3069116329.9344001</v>
       </c>
@@ -4310,11 +5132,11 @@
         <v>0.74359009868048132</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <f>SUMIF($C$2:$C$31,"=G",$G$2:$G$31)</f>
         <v>625846663.4000001</v>
       </c>
@@ -4323,11 +5145,11 @@
         <v>0.151631066459577</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <f>SUMIF($C$2:$C$31,"=P",$G$2:$G$31)</f>
         <v>304590703.80036008</v>
       </c>
@@ -4336,11 +5158,11 @@
         <v>7.3796691668871359E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <f>SUMIF($C$2:$C$31,"=a",$G$2:$G$31)</f>
         <v>127876637.64326</v>
       </c>
@@ -4349,28 +5171,703 @@
         <v>3.0982143191070337E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="16">
+    <row r="40" spans="2:6">
+      <c r="C40" s="15">
         <f>SUM(C36:C39)</f>
         <v>4127430334.7780204</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H11" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*B3</f>
+        <v>1460</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3*D3</f>
+        <v>2117</v>
+      </c>
+      <c r="G3">
+        <f>SQRT(5)*4.3</f>
+        <v>9.6150923032490958</v>
+      </c>
+      <c r="H3">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <f>G3*H3</f>
+        <v>701.901738137184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="39">
+        <v>4437.3028000000004</v>
+      </c>
+      <c r="F4" s="40">
+        <v>18294</v>
+      </c>
+      <c r="I4" s="39">
+        <v>4437.3028000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="40">
+        <v>4263.3834589999997</v>
+      </c>
+      <c r="F5" s="40">
+        <v>17796.16461</v>
+      </c>
+      <c r="I5" s="39">
+        <v>4678.509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2167</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18924</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2">
+        <v>702</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4478</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="17">
+        <f>SUMPRODUCT(C9:C11,B9:B11)</f>
+        <v>49704244</v>
+      </c>
+      <c r="D12" s="17">
+        <f>SUMPRODUCT(B9:B11,D9:D11)</f>
+        <v>48073328</v>
+      </c>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="17">
+        <f>C12*9</f>
+        <v>447338196</v>
+      </c>
+      <c r="D13" s="17">
+        <f>D12*9</f>
+        <v>432659952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="1">
+        <f>ROUND(C13/100000,2)</f>
+        <v>4473.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C14" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2">
+        <v>55955.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4473.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="40">
+        <v>41274.303350000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B3-B4-B5</f>
+        <v>10207.556649999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B6*0.7436</f>
+        <v>7590.3391249399992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6*0.1516</f>
+        <v>1547.4655881399999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B6*0.0738</f>
+        <v>753.31768076999992</v>
+      </c>
+      <c r="C9">
+        <f>SUM(B7:B9)</f>
+        <v>9891.1223938499988</v>
+      </c>
+      <c r="D9">
+        <f>B6-C9</f>
+        <v>316.43425614999978</v>
+      </c>
+      <c r="E9">
+        <f>D9/B6</f>
+        <v>3.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="43"/>
+      <c r="B10" s="34"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1547.4655881399999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.8019999999999998E-2</v>
+      </c>
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>40701.356868490271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7590.3391249399992</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="D14">
+        <f>B14/C14</f>
+        <v>41499.940540951335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2">
+        <v>753.31768076999992</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.437E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="42"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7800</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20438</v>
+      </c>
+      <c r="C19" s="5">
+        <v>222100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40701</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1460</v>
+      </c>
+      <c r="F19">
+        <f>SUM(B19:E19)</f>
+        <v>284699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19920</v>
+      </c>
+      <c r="C20" s="5">
+        <v>171800</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2167</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>235387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:Q31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:17">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17">
+      <c r="F7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1442.18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1473.01</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1439.56</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1401.84</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1366.89</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="2">
+        <f>(45/100)^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+      <c r="P7">
+        <f>H7/N7</f>
+        <v>15826.392318244169</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>L7/N7</f>
+        <v>15000.164609053498</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>650.79</v>
+      </c>
+      <c r="I8" s="2">
+        <v>691.87</v>
+      </c>
+      <c r="J8" s="2">
+        <v>676.16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>658.44</v>
+      </c>
+      <c r="L8" s="4">
+        <v>642.03</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="2">
+        <f>(35/100)^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O10" si="0">I8/N8</f>
+        <v>16136.909620991257</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>L8/N8</f>
+        <v>14974.460641399421</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2">
+        <v>499.32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>515.97</v>
+      </c>
+      <c r="J9" s="2">
+        <v>504.25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>491.04</v>
+      </c>
+      <c r="L9" s="4">
+        <v>478.4</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17">
+      <c r="F10" s="5"/>
+      <c r="G10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2">
+        <v>759.98</v>
+      </c>
+      <c r="N10" s="2">
+        <f>((50/100)^2)*(38/100)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>M10/N10</f>
+        <v>7999.7894736842109</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17">
+      <c r="K12">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" s="34" customFormat="1">
+      <c r="G14" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" s="34" customFormat="1"/>
+    <row r="16" spans="6:17" s="34" customFormat="1"/>
+    <row r="17" spans="3:6" s="34" customFormat="1"/>
+    <row r="18" spans="3:6" s="34" customFormat="1"/>
+    <row r="19" spans="3:6" s="34" customFormat="1"/>
+    <row r="20" spans="3:6" s="34" customFormat="1"/>
+    <row r="21" spans="3:6" s="34" customFormat="1"/>
+    <row r="22" spans="3:6" s="34" customFormat="1"/>
+    <row r="23" spans="3:6" s="34" customFormat="1"/>
+    <row r="24" spans="3:6" s="34" customFormat="1"/>
+    <row r="25" spans="3:6" s="34" customFormat="1">
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="3:6" s="34" customFormat="1">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="3:6" s="34" customFormat="1"/>
+    <row r="28" spans="3:6" s="34" customFormat="1"/>
+    <row r="29" spans="3:6" s="34" customFormat="1"/>
+    <row r="30" spans="3:6" s="34" customFormat="1"/>
+    <row r="31" spans="3:6" s="34" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O13:O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>